--- a/32-ajouter-un-lien-pour-créer-une-issue/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/32-ajouter-un-lien-pour-créer-une-issue/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T15:07:15+00:00</t>
+    <t>2025-05-22T09:07:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
